--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Keycapture_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Keycapture_JS.xlsx
@@ -753,7 +753,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Keycapture_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Keycapture_JS.xlsx
@@ -761,7 +761,7 @@
     <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="31.140625" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="37.140625" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
@@ -980,12 +980,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1">
